--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Avpr2.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H2">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N2">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.071111376256</v>
+        <v>10.13497741771411</v>
       </c>
       <c r="R2">
-        <v>18.640002386304</v>
+        <v>91.21479675942702</v>
       </c>
       <c r="S2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="T2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,22 +608,22 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I3">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J3">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N3">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.52835462784</v>
+        <v>19.64963730191778</v>
       </c>
       <c r="R3">
-        <v>31.75519165055999</v>
+        <v>176.84673571726</v>
       </c>
       <c r="S3">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="T3">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H4">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I4">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J4">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N4">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.296809020992</v>
+        <v>10.15571144342911</v>
       </c>
       <c r="R4">
-        <v>11.671281188928</v>
+        <v>91.40140299086201</v>
       </c>
       <c r="S4">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="T4">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H5">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I5">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J5">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N5">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.68571676816</v>
+        <v>15.33062233158767</v>
       </c>
       <c r="R5">
-        <v>16.11430060896</v>
+        <v>91.983733989526</v>
       </c>
       <c r="S5">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="T5">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H6">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I6">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J6">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N6">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.014810884736</v>
+        <v>11.24633127381867</v>
       </c>
       <c r="R6">
-        <v>9.133297962623999</v>
+        <v>101.216981464368</v>
       </c>
       <c r="S6">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="T6">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
     </row>
   </sheetData>
